--- a/download/hayleykim97_partdb.xlsx
+++ b/download/hayleykim97_partdb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12225" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -497,6 +497,10 @@
   </si>
   <si>
     <t>incubtemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSB3C5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1248,7 @@
         <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -1478,7 +1482,7 @@
         <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -1712,7 +1716,7 @@
         <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F24" s="5">
         <v>3</v>
@@ -1842,7 +1846,7 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29" s="5">
         <v>4</v>
@@ -2055,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
